--- a/Resultados/Experimento2/tabla_metricas.xlsx
+++ b/Resultados/Experimento2/tabla_metricas.xlsx
@@ -549,28 +549,28 @@
         <v>98.68000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K2" t="n">
-        <v>98.28</v>
+        <v>98.33</v>
       </c>
       <c r="L2" t="n">
-        <v>99.13</v>
+        <v>99.16</v>
       </c>
       <c r="M2" t="n">
-        <v>98.7</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="N2" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>98.08</v>
+        <v>98.39</v>
       </c>
       <c r="P2" t="n">
-        <v>99.06999999999999</v>
+        <v>99.09</v>
       </c>
       <c r="Q2" t="n">
-        <v>98.58</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -602,28 +602,28 @@
         <v>99.19</v>
       </c>
       <c r="J3" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K3" t="n">
-        <v>99.09999999999999</v>
+        <v>99.12</v>
       </c>
       <c r="L3" t="n">
-        <v>99.27</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>99.18000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="N3" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>99.12</v>
+        <v>99.02</v>
       </c>
       <c r="P3" t="n">
-        <v>99.23999999999999</v>
+        <v>99.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>99.18000000000001</v>
+        <v>99.15000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -655,28 +655,28 @@
         <v>98.33</v>
       </c>
       <c r="J4" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K4" t="n">
-        <v>98.26000000000001</v>
+        <v>98.33</v>
       </c>
       <c r="L4" t="n">
-        <v>98.36</v>
+        <v>98.42</v>
       </c>
       <c r="M4" t="n">
-        <v>98.31</v>
+        <v>98.38</v>
       </c>
       <c r="N4" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O4" t="n">
+        <v>98.01000000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>98.42</v>
+      </c>
+      <c r="Q4" t="n">
         <v>98.20999999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>98.31999999999999</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>98.27</v>
       </c>
     </row>
     <row r="5">
@@ -708,28 +708,28 @@
         <v>98.22</v>
       </c>
       <c r="J5" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K5" t="n">
-        <v>98</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>98.45999999999999</v>
+        <v>98.31</v>
       </c>
       <c r="M5" t="n">
-        <v>98.23</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="N5" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>98.03</v>
+        <v>98.05</v>
       </c>
       <c r="P5" t="n">
-        <v>98.34999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.19</v>
+        <v>98.22</v>
       </c>
     </row>
     <row r="6">
@@ -761,28 +761,28 @@
         <v>98.34</v>
       </c>
       <c r="J6" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K6" t="n">
-        <v>98.45999999999999</v>
+        <v>98.42</v>
       </c>
       <c r="L6" t="n">
-        <v>98.25</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>98.34999999999999</v>
+        <v>98.37</v>
       </c>
       <c r="N6" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>98.48999999999999</v>
+        <v>98.44</v>
       </c>
       <c r="P6" t="n">
-        <v>98.02</v>
+        <v>98.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.25</v>
+        <v>98.26000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -814,28 +814,28 @@
         <v>98.3</v>
       </c>
       <c r="J7" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K7" t="n">
-        <v>98.61</v>
+        <v>98.64</v>
       </c>
       <c r="L7" t="n">
-        <v>97.84</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>98.23</v>
+        <v>98.28</v>
       </c>
       <c r="N7" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>98.58</v>
+        <v>98.75</v>
       </c>
       <c r="P7" t="n">
-        <v>97.93000000000001</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.25</v>
+        <v>98.23999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -867,28 +867,28 @@
         <v>98.48999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K8" t="n">
-        <v>98.31</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>98.59</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>98.45</v>
+        <v>98.42</v>
       </c>
       <c r="N8" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>98.29000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="P8" t="n">
-        <v>98.45999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>98.38</v>
+        <v>98.33</v>
       </c>
     </row>
     <row r="9">
@@ -920,28 +920,28 @@
         <v>97.98999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K9" t="n">
-        <v>97.95999999999999</v>
+        <v>97.91</v>
       </c>
       <c r="L9" t="n">
         <v>98.02</v>
       </c>
       <c r="M9" t="n">
-        <v>97.98999999999999</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="N9" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>97.95999999999999</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>97.87</v>
+        <v>97.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.92</v>
+        <v>97.88</v>
       </c>
     </row>
     <row r="10">
@@ -973,25 +973,25 @@
         <v>98.2</v>
       </c>
       <c r="J10" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K10" t="n">
-        <v>98.54000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>97.83</v>
+        <v>97.89</v>
       </c>
       <c r="M10" t="n">
-        <v>98.18000000000001</v>
+        <v>98.14</v>
       </c>
       <c r="N10" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>98.27</v>
+        <v>98.23</v>
       </c>
       <c r="P10" t="n">
-        <v>97.8</v>
+        <v>97.84</v>
       </c>
       <c r="Q10" t="n">
         <v>98.04000000000001</v>
@@ -1026,28 +1026,28 @@
         <v>97.91</v>
       </c>
       <c r="J11" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K11" t="n">
-        <v>98.06</v>
+        <v>98.05</v>
       </c>
       <c r="L11" t="n">
-        <v>97.73</v>
+        <v>97.63</v>
       </c>
       <c r="M11" t="n">
-        <v>97.90000000000001</v>
+        <v>97.84</v>
       </c>
       <c r="N11" t="n">
         <v>98.29000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>97.78</v>
+        <v>97.81</v>
       </c>
       <c r="P11" t="n">
-        <v>97.66</v>
+        <v>97.61</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.72</v>
+        <v>97.70999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="K14" t="n">
         <v>98.36</v>
       </c>
       <c r="L14" t="n">
-        <v>98.34999999999999</v>
+        <v>98.36</v>
       </c>
       <c r="M14" t="n">
-        <v>98.34999999999999</v>
+        <v>98.36</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>98.29000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>98.28</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="P15" t="n">
         <v>98.27</v>

--- a/Resultados/Experimento2/tabla_metricas.xlsx
+++ b/Resultados/Experimento2/tabla_metricas.xlsx
@@ -525,16 +525,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>98.45</v>
+        <v>99.08</v>
       </c>
       <c r="D2" t="n">
-        <v>99.12</v>
+        <v>97.91</v>
       </c>
       <c r="E2" t="n">
-        <v>98.78</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>98.37</v>
@@ -578,16 +578,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>99.13</v>
+        <v>98.98</v>
       </c>
       <c r="D3" t="n">
-        <v>99.3</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>99.20999999999999</v>
+        <v>98.73</v>
       </c>
       <c r="F3" t="n">
         <v>98.37</v>
@@ -631,16 +631,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>98.3</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>98.40000000000001</v>
+        <v>96.41</v>
       </c>
       <c r="E4" t="n">
-        <v>98.34999999999999</v>
+        <v>96.97</v>
       </c>
       <c r="F4" t="n">
         <v>98.37</v>
@@ -684,16 +684,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>98.15000000000001</v>
+        <v>98.08</v>
       </c>
       <c r="D5" t="n">
-        <v>98.40000000000001</v>
+        <v>94.66</v>
       </c>
       <c r="E5" t="n">
-        <v>98.27</v>
+        <v>96.34</v>
       </c>
       <c r="F5" t="n">
         <v>98.37</v>
@@ -737,16 +737,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>98.45999999999999</v>
+        <v>98.11</v>
       </c>
       <c r="D6" t="n">
-        <v>98.26000000000001</v>
+        <v>95.17</v>
       </c>
       <c r="E6" t="n">
-        <v>98.36</v>
+        <v>96.62</v>
       </c>
       <c r="F6" t="n">
         <v>98.37</v>
@@ -790,16 +790,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>98.59</v>
+        <v>97.63</v>
       </c>
       <c r="D7" t="n">
-        <v>97.93000000000001</v>
+        <v>94.41</v>
       </c>
       <c r="E7" t="n">
-        <v>98.26000000000001</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>98.37</v>
@@ -843,16 +843,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>98.34</v>
+        <v>98.3</v>
       </c>
       <c r="D8" t="n">
-        <v>98.62</v>
+        <v>95.69</v>
       </c>
       <c r="E8" t="n">
-        <v>98.48</v>
+        <v>96.97</v>
       </c>
       <c r="F8" t="n">
         <v>98.37</v>
@@ -896,16 +896,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>97.95</v>
+        <v>98.28</v>
       </c>
       <c r="D9" t="n">
-        <v>98.04000000000001</v>
+        <v>95.37</v>
       </c>
       <c r="E9" t="n">
-        <v>97.98999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="F9" t="n">
         <v>98.37</v>
@@ -949,16 +949,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>98.38</v>
+        <v>84.39</v>
       </c>
       <c r="D10" t="n">
-        <v>97.95</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>98.17</v>
+        <v>90.14</v>
       </c>
       <c r="F10" t="n">
         <v>98.37</v>
@@ -1002,16 +1002,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>98.08</v>
+        <v>91.53</v>
       </c>
       <c r="D11" t="n">
-        <v>97.73</v>
+        <v>94.83</v>
       </c>
       <c r="E11" t="n">
-        <v>97.91</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="F11" t="n">
         <v>98.37</v>
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.39</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>98.38</v>
+        <v>96.19</v>
       </c>
       <c r="D12" t="n">
-        <v>98.38</v>
+        <v>95.97</v>
       </c>
       <c r="E12" t="n">
-        <v>98.38</v>
+        <v>96.02</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
